--- a/data/qna/기계자동차로봇부품공학부.xlsx
+++ b/data/qna/기계자동차로봇부품공학부.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,80 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>동의대식 내신 5.0</t>
+          <t>기계자동차로봇부품공학부</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>안녕하십니까~! 언제나 너의 곁에 WE-DEU💙
-동의대학교 입학홍보대사 박세원 입니다!
-동의대학교 자동차공학과에 대해 관심을 가져주셔서 정말 감사합니다!
-가장 일반적인 학생부교과(일반고교과전형) 전년도 전형결과를 알려드리자면 최초합격자 평균 4.16 이고 최종등록자 평균 5.24입니다.
-이 전형이외에도 학생부종합(학교생활우수자(면접)전형), 학교부종합(지역인재교과전형)등 다양한 전형이 있으니 질문자님에게 맞는 전형으로 지원하시기 바랍니다-!
-다만, 매년 어떤 성적대의 학생들이 지원할지 예측할 수 없으므로 합격등급선에 대한 것은 유동적일 수 있음을 참고해주시기 바랍니다.
-이 전형 이외에도 동의대학교는 다른 전형으로 복수 지원이 가능하기 때문에 작성자 분에게 맞는 전형으로 넣으시면 될거 같습니다😊
-저의 답변이 작성자님에게 도움이 됐으면 좋겠습니다~!
-또 다른 궁금하신 점이 있으시다면
-동의대학교 WE-DEU 네이버카페, 인스타그램을 통해 편하게 질문해주세요!🎀
-✨동의대학교 WE-DEU는 질문자님의 반짝반짝 빛나는 꿈을 응원하겠습니다. 감사합니다!✨</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>동의대 수시</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>동의대학교 조선해양공학과 작년성적좀 말해주세요</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>안녕하십니까, 언제나 너의 곁에 WE-DEU!
-동의대학교 입학홍보대사 조호준 입니다!
-동의대학교 무역학과에 질문을 주셨군요!
-전년도(2023학년도 전형결과) 수시모집 일반고교과전형 &amp;lt;최초합격자&gt; 기준으로 설명해드리겠습니다!
-모집인원 25명 지원인원 65명, 경쟁률 2.60, 충원합격(후보순위) 40명 
-최초합격자 (학생부교과 상위12과목)
-평균 4.50, 70%컷 4.75
-최종등록자 (학생부교과 상위12과목)
-석차등급 5.28, 70%컷 5.50 입니다 !
-다른 전형으로도 지원이 가능하시니 자세한 사항은 동의대학교 홈페이지에서 확인해주세요!!
-궁금하셨던 내용이 조금은 해결이 되었을까요?
-더 궁금하신 사항은 위듀카페 or 인스타그램 @we_deu_ 카카오톡 오픈채팅으로 문의주시면 최대한 빠르게 답변드리겠습니다!
-저희 WE-DEU는 반짝반짝 빛날 질문자님의 미래를 응원하고 있겠습니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>교과과목 뭐뭐 반영하나요?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>기계자동차로봇부품공학부</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>기계공학부로 언제 나뉘나요?</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE DEU!
 동의대학교 입학홍보대사 윤다원입니다.
@@ -533,13 +483,23 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>기자로 1학년</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부는 1학년 때 뭐배우나요?</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE DEU!
 동의대학교 입학홍보대사 윤다원입니다.
@@ -562,13 +522,24 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>성적</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부 일반고교과전형 작년 성적이랑 비교해봤는데
+전 4.2 성적인데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE DEU! 동의대학교 입학흥보대사 윤다원입니다.
 합격 가능성에 대해서는 매년 변수가 있고 어떤 성적대의 학생들이 지원하게 될 지  알수없는 관계로 정확한 안내가 어렵습니다ㅜ
@@ -581,13 +552,23 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>기계자동차로봇부품공학부</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부는 뭐고 기계공학과는 뭐고 로봇자동화공학과는 뭐고 자동차공학과는 뭔가요?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE DEU!
 동의대학교 입학홍보대사 윤다원입니다.
@@ -600,43 +581,25 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>기계자동차로봇부품공학부</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>고1이시면 상위권 대학 노리시는거 추천드립니다 취업이랑 그런건 상관없는데 서포트 받는게 없다고 보시면 되셔서 고1이면 2년 인생갈아넣는다고 생각하시고 공부하세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>조기취업형계약학과</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>안녕하십니까, 동의대학교 입학홍보대사 복세인입니다 :)
-조기취업형계약학과전형을 통해 선발된 학생은 3년만에 학사학위를 취득할 수 있으며
-1년에 4학기제(1학기, 여름, 2학기, 겨울)로 교육과정을 편성, 운영 하고 있습니다 
-학과는 질문자님이 말씀하신 것과 같이 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과 총 3개의 학과가 조기취업형계약학과에 속해있습니다 !
-https://has.deu.ac.kr/%ed%95%99%ea%b3%bc%ec%86%8c%ea%b0%9c/
-조기취업형계약학과에 대해 더 궁금한 점은 링크를 통해 확인해주시면 이해가 빠르실 거예요  ㅎㅎ
-이외에 궁금하신 점은 동의대학교 입학홍보대사 인스타그램, 페이스북, 네이버 카페 등을 통해 질문 주시면 빠르고 정확하게 답변 드리도록 하겠습니다. 감사합니다 :)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>군휴학 문의</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>제가 내년 4월에 군입대가 예정되어 있는데 
+군휴학에 필요한 서류나 준비물이 있을까요??
+그리고 1학년 1학기에 군휴학이 가능하죠?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>안녕하십니까! 언제나 너의 곁에 WE-DEU 동의대학교 입학홍보대사 정건호입니다ㅎ
 군휴학에 대해 질문해주셨네요!
@@ -647,97 +610,117 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>동의대 조선해양공학과갈까요 경성대 신소재 공학과갈까요??</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>경성대, 대학로부터 끝 경성대 가 무조건 후회하지 말고 경성대 가</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>학교 천문 동아리</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>천문 동아리 가입 하고 싶어서 그런데 
+코시국이라도 별자리 보러 여행 가나요?? 
+그리고 동아리 인기는 많은 편인가요?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>인기는 많은데 코시국 때문에 공식 활동은 안해요</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>기숙사는 어디가 좋나요 👀</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>행복 vs 효민 !!</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>시설은 행긱이 좋고요 밥은 효긱이 더 맛있어요</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>영어 6등급인데 괜찮나요?</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>영어 공부 해가는게 나을까요?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>공부는 해서 나쁠게 없어서 어디서든지 도움될거에요</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>둘 다 최초합격 했는데 어디 가는게 더 좋을까요..!!</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>인제대 전자 it 기계 자동차 공학부 
+동의대 기계자동차로봇부품공학부 
+거리는 둘 다 비슷하고
+인제대학은 최초합 장학금을 줍니다
+어디가 더 좋은 선택일까요?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>타단대이긴하지만동의대가 더 나을거같아요</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>동의대기계vs계명대기계</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>동의대 식 환산 등급이 4.7 인데</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5점대도 든든히 들어와요 걱정마요  . . . .</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>동의대 산출법으로 4.08이 나옵니다!!</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학과 추합이 가능할까욤..?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 we-deu 동의대학교 입학홍보대사 정건호 입니다!
 저희 기계자동차로봇부품공학부에 질문 해주셨네요!
@@ -753,110 +736,120 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>동의대식으로 4.08인데 붙을수 있을까요?</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21년도 입결 제외하고 보니까 입결이 좀 높던데 
+추합될 성적인가요?
+전형은 100%교과로 생각하고 있습니다</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>과마다 다른데 웬만한 높은 곳 아니면 4.08이면 걍 된다고 생각하시면 됩니다:)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>내신 5.08</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>요새 동의대 입결 개박살났던데 5등급대도 많이 보이드만</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>수시등급</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>네 뭐 4점 대면 합격하실 거 같아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>남녀 성비 질문</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>음.... 나 1학년때 영어수업에  43명인가 수업들었는데 여자 2명 있었어</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>대학고민중이에요ㅜㅜ</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>동아대 기계공학과랑 비교했을때 각각 장단점이 있을까요ㅜ?</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>질문있어요 선배님들 ~</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1. 작년 정시평균보다 조금 높으면 가능성있을까요?
+   추합많이 도는 편인가요?
+2. 주로 취업현황이 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>전 추합 200 정도로 들어왔고 그리고 아무래도 공대는 취업이 좋겠죠 자기가 자격증 열심히 따고 공부 열심히하면
 취업 잘되실거에요</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>캐드사용을 하나요</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1학년 2학기에 CAD/CAM 전공강의 있습니다 ! 남성분이라면 군대제대후 좋은걸로 맞추는거 추천드릴게요 !</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>보통 정시성적</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>어느 정도 받아야 하는지 알려주세요 ㅠ 제가 이번 수능을 망쳐서  수(가)가 5떳어요 과탐은 4,4 인것 같아요</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>국어6등급 수학5 과탐53떠도 최초합 하고 장학금 받는다 이거야~~</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>질문 좀 드리겠어요 ㅎ</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.제가 수능 동의대 식으로 4.4정도  나오는데 가능할까요?
+2.주로 취업은 어느 쪽으로 하나요? 잘 되는 편인가요?
+3.보통 학비가 어느정도 드나요? 사립이라 궁금해서요 
+4. 남자만 다 몰려있나요? 보통 기계과라 하면 그래서요
+    선후배사이에 사이는 어떤가요?</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>1. 그냥 벽 부수고 장학금 받고 들어옵니다.
 2. 하기 나름인데 정말 노력하시면 공기업 가능
@@ -865,322 +858,291 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>동의대식 5.초중반 나오는데 면접 잘 보면 가능할까요</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>작년 입시결과 평균에 근접하길래 상향으로 넣어봤는데 면접 잘 보면 추합이라도 될까요??</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>넹ㅎㅎ 추합 될 것 같아용!̆̈ !̆̈ !̆̈ !̆̈</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>면접 준비를 하고있어서 들렀습니다</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부에 대한 면접관련은 찾아보기 어려워 글을 남겨보는데 이 과 면접보신 분들은 기타질의응답때 어떤 질문을 받으셨나요??</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>면접보는 사람이 엄청많아서 자기소개랑 지원동기만 얘기하고 끝났습니다</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>조선해양 요새 어렵다고는 하던데 많이 어렵니요?</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>동의대 기계 어떰?</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>분위기 학교생활 이런거</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>나쁘지않아요~ 뭐 그럭저럭 수업듣고 다들열심히하죠</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>내신</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>제일 낮은 과 추추추추합은 가능 할지도..</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>동의식으로 내신 6.11</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>동의식으로 내신 6.11인데요. 학생부종합(학교생활우수자전형) 평균보니까 5.41이 더라구요. 가능성 없겠죠????</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>라떼는.... 동의대식 2.3받고 추합으로 들어왔는디...</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>동의대 내신 4.41</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>동의대 내신 4.41인데요. 교과로 가능할까요? 작년엔 거의 문닫고 들어갔던데..
+생기부 10장인데 내용은 좀 엉망이에요. 종합도 1차에서 떨어지겠죠? 일단 둘 다 넣는데 좀 불안하네요ㅠ</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>4.41교과면 일반고교과면 간당간당하고 농어촌이면 붙을거야</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>교과내신 3.8인데</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>생기부에 뚜렸하게 한 활동이 없어서 교과로 가고싶은데 3.8로 가능할까요..?</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>작년 기준으로 거의 커트라인인데 운 좋으면 합격이고 아니면 불합 뜰 거 같아요...!</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>동의대 내신으로 4.66 가능할까요..?</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>작년 입시결과로는 교과전형은 불가능할거 같아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>정시등급</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>수학나형을 치면 몇등급 맞아야 가능할까요</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>다른 과목이 어떨지 모르겠지만 3-4정도는 맞는게 좋지않을까요 ?</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>등급,커트라인</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>수능최저 합격기준,최저등급 평균을 알려주십시요 부탁드리겠습니다ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>수능최저 없고 등급컷은 학교홈페이지 입시요강가서 찾아보세요~  대충 수시는 동의대식3이면 되지 않나 싶은데</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>동의대로 입시준비를 하고싶은데 가능성이 있을까요</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>동의대 상위12개 해보니까 5.초반 나오는데 남은 시험을 잘 보면 입시가 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>수시가 3학년1학기까지일텐데 많이 빡셀듯영 2학년이시면 충분하구요</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>동의대학교 수시등급</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>이번년도 기준 동의대식 산출하면 3.9~4.0정도 나오는데 합격할 수 있을까요?,,한다면 1,2,3차 중에서 몇 번째 추가합격 할까요,,??</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>난 3.6인가 그랬는데 최초합 됐다 공대고 모집인원이 많아서 그런거일수도 있는데 최종등록자 작년평균이랑 표준편차 보고 잘 생각해봐봐 그럼 알수있을걸 
 갠적으로 그정도 내신이면 최초합아니더라도 불합은 아닐듯</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>동의대 vs 경성대</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>이과 동의대&gt;경성대 
-문과 동의대&amp;lt;경성대
-이걸로 정리끝</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>학부</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>희망하는학과 개인별로 다 적어서 전공배정원서 내구요 그중에서 이제 성적순으로 잘라요</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>학과</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>노트북추천좀 부탁드립니다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>아무거나 사도 지장없어요 ㅎㅎ 매트랩, 비쥬얼스튜디오, 캐드 다운 받을 수 있을 정도</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>계명대 전기에너지공학 vs 동의대 기계자동차부품공학부</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>에이 난 그래도 계대갈것같아 동의대 공대가 좋다고 해도 학교네임드도 계대가 더 좋은데 그만큼 더 좋은 시설 있지않을까 ㅠ 안가봐서 잘 모르겠어 게다가 여긴 학부라서 성적순으로 나뉘니까 잘 고려해봐</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>노트북사양추천좀 부탁드립니다</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>용도에 따라 다릅니다 
-램은 16기가로 무조건
-무게 가볍게 -성능 안좋아요 -유튜브 문서작성용
-무게 2키로 내외 -보통 게이밍 성능도 좋아요
-저장장치는 ssd로 최소 256기가 이상부터
-한성 보스몬스터  ,레노버 리전  -성능
-그램 -무게가볍게 아수스꺼도 괜찮아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1학년때 노트북을 꼭 사야 하나요?</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>대학 입학하고 나면 전공이 무엇이든 과제 때문에 문서 작성할 일이 꽤 많아요. 그때그때 문서 공유할 일도 있고요. 다만 개인 PC가 따로 있고, 쓰기 편한 환경이라면 필수까진 아닐 듯 합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>기계자동치로봇부품공학부</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>동의대 기준 변환점수 442 기자로 합격할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>쌉가능임 ㅇㅇ ㅎㅇㅌ~^^ 그냥 넣어</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>4.25</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>동의대식으로 4.25데 가능성이 있나요?</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>기자로? ㅆX기 오지마세요 다른곳 가세요</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>선배들 착한가요..?</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>질문자 생각에는 어떨거 같아요????????</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>조선해양공학과에 대한 정보가 많이 없는것같네요...</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>조선해양공학과 재학생입니다 군기는 없습니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>계명대공대 vs 동의대공대</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>솔직히 말하면 거기서 거기! 부산에 살면 동의대 대구에 살면 계명대 ! 대신 대구는 대구에 소재한 대학들을 우선하더라구요! ㅎㅎ</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>질문이 있습니다.</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1) 기계자동차로봇부품공학부랑 전기전자통신중 어디가 더 좋을까요?
+2)2학년때 기계 로봇 자동차로 전공 선택할때
+ 성적순으로 선택하나요?</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>1. 딱히 무슨과가 더 좋다고 말하긴 쫌 그래요..
 원하시는 과를 가야 만족스럽지 않을까요?
@@ -1189,25 +1151,45 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>수시등급 평균 추합</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>막 작년 수시등급표 보면 평균등급 나와있잖아요 그게 추합으로 합격된 사람 전부다 포함해서 나온 평균 등급 인가요?? 근데 동의대식 4.25로 기계자동차 교과 가능할까요?</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>저도 동의대  4.5쯤 나와서 넣었는데  추가 1찬가 붙음</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>내신 4.16ㅠㅠ</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>고3이고 내신 4.16인데 여기 학과 종합이랑 교과로 붙을수 있을까요..?? 이번에 내신 산출 방식 바껴서 힘들라나..</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>안녕하세요 😊 언제나 너의 곁에, WE-DEU 💙
 동의대학교 입학홍보대사 입니다 ! 
@@ -1218,133 +1200,68 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>진짜 대학이 처음이라 이런걸 질문하려는데요ㅎㅎ</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>입학식 따로 진행되고  수강신청은 입학식날 진행되는걸로 알고있습미다</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>25일에 OT</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>OT 별거 아님 진짜. 안 가도 학교가면 다 친해지게 돼 있고 굳이 갈 필요 전혀 없!! 대신 재밌기도 하고 술게임도 그때 알 수 있음!</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>기숙사</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>말 짧아서 아무도 댓글 안 달아주네ㅋㅋㅋㅋㅋ</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>학교 다닐만한가요?</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>동의대는 공대 괜찮음ㅇㅇ 고학년 연구실들은 기업이랑 교수님이랑 같이 프로젝트도 진행하는 중이라고 했고</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>동의대 자동차공학부 분위기라던지 똥군기라던지 어떤가요?</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>학부가 아닌 자동차공학과만 말씀하신다면 신설학과라 정보가 거의없고 분위기는 학번마다 달라요 대신 교수님분들이 좀 젊은분이 많으세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>분위기어떤가요!?</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>괜찮아요 공부할사람은 ㄹㅇ 빡세게하고 아니면 안하고 - 이건 일반적이겠지만 사람도 많아서 서로한테 신경도 안쓰고 편함 교수님들도 대체로 열심히신분이셔서 좋음</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>과분위기!!</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>도망가세요 동의대는 아니에요 경고할깨 도망가세요</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>동의대 교과전형으로 합격할 수 있을까요?</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>동의대 교과전형으로 4.94인데 작년도 80%컷 4.9x에 딱 걸치는데 이번에 합격할 수 있을까요?안되면 신소재공학부라도 넣어보려는데 될까요?</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>안녕하세요! 반갑습니다 동의대학교 입학 홍보대사 We DEU입니다❤ 에브리타임으로 문의주셨는데, 페이스북Wedeu890이나 인스타그램We_deu 검색하셔서 메신저나 다이렉트 보내주시면 더욱 상세하게 답변해드리겠습니다☺</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>교과 환산 점수</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>교과 환산 점수 4.7인데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>동의대학교 입학 홍보대사입니다. 작년도 최초 합격자 및 최종등록자 혹은 자세한 사항 궁금하시다면 카톡 아이디 sukhyun3523 로 연락주세요^^</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>강의실위치</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2인문관 10번건물 410호이예요 4층</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>기계자동차로봇부품공학부</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>동의대학교 좋아요?</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>취업이나 평판 등등 학식도..
+이번에 입학하려는데 먼 지역에 살아서 동의대에 잘 몰라서 질문 올립니다ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>평판 보통
 취업 어딜가나 도찐개찐 , 전공이좋아 중소는 자리많음
